--- a/data/trans_orig/P57_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>91161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74922</v>
+        <v>76272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108415</v>
+        <v>108213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3113100884623458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2558526359237551</v>
+        <v>0.2604656978439054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3702302010438241</v>
+        <v>0.3695420400060763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -763,19 +763,19 @@
         <v>72897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57724</v>
+        <v>58448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87144</v>
+        <v>88516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2524984533382787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1999420848748455</v>
+        <v>0.2024503995011877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3018480664799131</v>
+        <v>0.3065983585564708</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -784,19 +784,19 @@
         <v>164058</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>143015</v>
+        <v>143611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>185994</v>
+        <v>187813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2821129863692435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2459264793430626</v>
+        <v>0.2469514351361903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3198336607064869</v>
+        <v>0.3229605232564046</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>201670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>184416</v>
+        <v>184618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>217909</v>
+        <v>216559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6886899115376542</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6297697989561759</v>
+        <v>0.6304579599939237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7441473640762449</v>
+        <v>0.7395343021560945</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -834,19 +834,19 @@
         <v>215806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201559</v>
+        <v>200187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230979</v>
+        <v>230255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7475015466617212</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6981519335200869</v>
+        <v>0.6934016414435292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8000579151251545</v>
+        <v>0.7975496004988123</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -855,19 +855,19 @@
         <v>417476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>395540</v>
+        <v>393721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>438519</v>
+        <v>437923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7178870136307566</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6801663392935132</v>
+        <v>0.6770394767435954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7540735206569376</v>
+        <v>0.7530485648638097</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>174690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154298</v>
+        <v>153186</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197128</v>
+        <v>200018</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3498217520544905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.308985273684694</v>
+        <v>0.3067591926421075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3947535292333368</v>
+        <v>0.400541425915474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -980,19 +980,19 @@
         <v>166897</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146063</v>
+        <v>143237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190038</v>
+        <v>188772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3202333236114555</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2802582620227393</v>
+        <v>0.274835266278757</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3646358648901012</v>
+        <v>0.3622054338537182</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -1001,19 +1001,19 @@
         <v>341587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>311375</v>
+        <v>309811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>374634</v>
+        <v>376232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3347114631566077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3051079704086224</v>
+        <v>0.3035753177443515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3670934178755041</v>
+        <v>0.3686592797398689</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>324679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302241</v>
+        <v>299351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345071</v>
+        <v>346183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6501782479455096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6052464707666632</v>
+        <v>0.5994585740845257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.691014726315306</v>
+        <v>0.6932408073578924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>324</v>
@@ -1051,19 +1051,19 @@
         <v>354276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>331135</v>
+        <v>332401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375110</v>
+        <v>377936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6797666763885445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6353641351098983</v>
+        <v>0.6377945661462816</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7197417379772607</v>
+        <v>0.725164733721243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -1072,19 +1072,19 @@
         <v>678955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>645908</v>
+        <v>644310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709167</v>
+        <v>710731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6652885368433923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6329065821244958</v>
+        <v>0.631340720260131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6948920295913775</v>
+        <v>0.6964246822556485</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>96976</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81093</v>
+        <v>79685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114063</v>
+        <v>111800</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3052428614799668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2552499579129371</v>
+        <v>0.2508196962654935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3590262267989177</v>
+        <v>0.3519032019034657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1197,19 +1197,19 @@
         <v>96801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80114</v>
+        <v>81412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112296</v>
+        <v>114891</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2878334260393766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.238216168771111</v>
+        <v>0.2420742638122921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3339073737120828</v>
+        <v>0.3416219152071653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>201</v>
@@ -1218,19 +1218,19 @@
         <v>193777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173702</v>
+        <v>172458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219625</v>
+        <v>216912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2962904602005776</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2655960711706907</v>
+        <v>0.2636940491761099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.335813601132341</v>
+        <v>0.3316652254986335</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>220724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>203637</v>
+        <v>205900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236607</v>
+        <v>238015</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6947571385200332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6409737732010822</v>
+        <v>0.6480967980965342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7447500420870629</v>
+        <v>0.7491803037345065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -1268,19 +1268,19 @@
         <v>239508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224013</v>
+        <v>221418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256195</v>
+        <v>254897</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7121665739606233</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6660926262879171</v>
+        <v>0.6583780847928346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7617838312288889</v>
+        <v>0.7579257361877074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>465</v>
@@ -1289,19 +1289,19 @@
         <v>460232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>434384</v>
+        <v>437097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>480307</v>
+        <v>481551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7037095397994224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6641863988676586</v>
+        <v>0.6683347745013666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7344039288293093</v>
+        <v>0.7363059508238903</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>148778</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130591</v>
+        <v>129936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167237</v>
+        <v>169255</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4054553045655564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3558922517342923</v>
+        <v>0.3541067798325032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4557615469068573</v>
+        <v>0.4612614273755098</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -1414,19 +1414,19 @@
         <v>134926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115070</v>
+        <v>116117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153279</v>
+        <v>154771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3505717835670006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2989826629019645</v>
+        <v>0.3017008599895924</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3982586483155502</v>
+        <v>0.4021363537547191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -1435,19 +1435,19 @@
         <v>283703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258649</v>
+        <v>256091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313747</v>
+        <v>311457</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3773589818793184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.344033402854089</v>
+        <v>0.3406311767629958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4173205985928332</v>
+        <v>0.4142746205167212</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>218162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199703</v>
+        <v>197685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236349</v>
+        <v>237004</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5945446954344437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5442384530931427</v>
+        <v>0.5387385726244897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6441077482657076</v>
+        <v>0.6458932201674965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -1485,19 +1485,19 @@
         <v>249947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231594</v>
+        <v>230102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269803</v>
+        <v>268756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6494282164329994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6017413516844499</v>
+        <v>0.5978636462452809</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7010173370980355</v>
+        <v>0.6982991400104076</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>437</v>
@@ -1506,19 +1506,19 @@
         <v>468110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438066</v>
+        <v>440356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>493164</v>
+        <v>495722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6226410181206816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5826794014071668</v>
+        <v>0.5857253794832792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6559665971459111</v>
+        <v>0.6593688232370043</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>32603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23016</v>
+        <v>23030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43966</v>
+        <v>44504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.154357032954236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.108965346468617</v>
+        <v>0.1090341368269067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.208152964834032</v>
+        <v>0.210701033850624</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1631,19 +1631,19 @@
         <v>25658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17937</v>
+        <v>17608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35525</v>
+        <v>36358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1173826287572381</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08205786134941002</v>
+        <v>0.08055317279964055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.16251984937647</v>
+        <v>0.1663339462161086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1652,19 +1652,19 @@
         <v>58262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45911</v>
+        <v>45347</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72463</v>
+        <v>72988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1355529992392953</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1068164475221227</v>
+        <v>0.1055041569787727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1685939349412205</v>
+        <v>0.169816247662696</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>178618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167255</v>
+        <v>166717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188205</v>
+        <v>188191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.845642967045764</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7918470351659681</v>
+        <v>0.7892989661493761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8910346535313829</v>
+        <v>0.8909658631730933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>196</v>
@@ -1702,19 +1702,19 @@
         <v>192929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183062</v>
+        <v>182229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200650</v>
+        <v>200979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.882617371242762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8374801506235301</v>
+        <v>0.8336660537838915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.91794213865059</v>
+        <v>0.9194468272003593</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>376</v>
@@ -1723,19 +1723,19 @@
         <v>371546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357345</v>
+        <v>356820</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>383897</v>
+        <v>384461</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8644470007607047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8314060650587793</v>
+        <v>0.8301837523373038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8931835524778772</v>
+        <v>0.8944958430212272</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>134863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118323</v>
+        <v>118216</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150607</v>
+        <v>151724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5125485503596018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4496882043892205</v>
+        <v>0.4492807554284662</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5723819034258186</v>
+        <v>0.5766286263374513</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -1848,19 +1848,19 @@
         <v>121881</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105696</v>
+        <v>106030</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137790</v>
+        <v>138558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4479043655331694</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3884268315411079</v>
+        <v>0.3896526980288977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5063715205529591</v>
+        <v>0.5091918464501775</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -1869,19 +1869,19 @@
         <v>256744</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>231221</v>
+        <v>233800</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>278933</v>
+        <v>279017</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4796835931283924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4319977471271993</v>
+        <v>0.4368173879486779</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5211407227852778</v>
+        <v>0.5212965347492072</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>128260</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>112516</v>
+        <v>111399</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144800</v>
+        <v>144907</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4874514496403982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4276180965741819</v>
+        <v>0.4233713736625487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5503117956107801</v>
+        <v>0.5507192445715338</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -1919,19 +1919,19 @@
         <v>150232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134323</v>
+        <v>133555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166417</v>
+        <v>166083</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5520956344668306</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4936284794470411</v>
+        <v>0.4908081535498226</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6115731684588922</v>
+        <v>0.6103473019711027</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>269</v>
@@ -1940,19 +1940,19 @@
         <v>278492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>256303</v>
+        <v>256219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>304015</v>
+        <v>301436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5203164068716075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4788592772147223</v>
+        <v>0.4787034652507927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.568002252872801</v>
+        <v>0.563182612051322</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>191503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170127</v>
+        <v>169451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218286</v>
+        <v>216054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2941830549343735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2613452170421157</v>
+        <v>0.2603074913481018</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3353259909556983</v>
+        <v>0.3318971197073477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -2065,19 +2065,19 @@
         <v>177202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154097</v>
+        <v>156373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>200392</v>
+        <v>203245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2597536393286689</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2258843721857252</v>
+        <v>0.2292211084263625</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2937475406806128</v>
+        <v>0.2979295453307554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>342</v>
@@ -2086,19 +2086,19 @@
         <v>368705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>336091</v>
+        <v>336956</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>401399</v>
+        <v>403405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2765651348595055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2521015988284526</v>
+        <v>0.2527502653517555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3010886872737627</v>
+        <v>0.3025935907831925</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>459463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>432680</v>
+        <v>434912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>480839</v>
+        <v>481515</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7058169450656265</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6646740090443017</v>
+        <v>0.6681028802926523</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7386547829578842</v>
+        <v>0.7396925086518983</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>467</v>
@@ -2136,19 +2136,19 @@
         <v>504990</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>481800</v>
+        <v>478947</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>528095</v>
+        <v>525819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7402463606713311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7062524593193873</v>
+        <v>0.7020704546692446</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7741156278142752</v>
+        <v>0.7707788915736375</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>871</v>
@@ -2157,19 +2157,19 @@
         <v>964453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>931759</v>
+        <v>929753</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>997067</v>
+        <v>996202</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7234348651404945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6989113127262373</v>
+        <v>0.6974064092168074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7478984011715475</v>
+        <v>0.7472497346482444</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>155622</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134531</v>
+        <v>137276</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>180296</v>
+        <v>180582</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1998781497510251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1727895724353452</v>
+        <v>0.1763145399450107</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2315696185336036</v>
+        <v>0.2319370583374122</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -2282,19 +2282,19 @@
         <v>132461</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109986</v>
+        <v>109611</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157504</v>
+        <v>154697</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1607239404656517</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1334536867693533</v>
+        <v>0.1329983631273555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.191110325446486</v>
+        <v>0.1877033911488842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>267</v>
@@ -2303,19 +2303,19 @@
         <v>288083</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>256383</v>
+        <v>257632</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>319867</v>
+        <v>320011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1797444048123411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1599657558559387</v>
+        <v>0.1607451681116125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1995754115399519</v>
+        <v>0.1996650229515768</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>622961</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>598287</v>
+        <v>598001</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>644052</v>
+        <v>641307</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8001218502489749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7684303814663968</v>
+        <v>0.7680629416625879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8272104275646549</v>
+        <v>0.8236854600549902</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>633</v>
@@ -2353,19 +2353,19 @@
         <v>691693</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>666650</v>
+        <v>669457</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>714168</v>
+        <v>714543</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8392760595343483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8088896745535138</v>
+        <v>0.8122966088511157</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8665463132306467</v>
+        <v>0.8670016368726444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1236</v>
@@ -2374,19 +2374,19 @@
         <v>1314654</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1282870</v>
+        <v>1282726</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1346354</v>
+        <v>1345105</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8202555951876589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8004245884600483</v>
+        <v>0.8003349770484233</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8400342441440614</v>
+        <v>0.8392548318883879</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>1026196</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.303542595721792</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>897</v>
@@ -2499,19 +2499,19 @@
         <v>928723</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2632355943658629</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1867</v>
@@ -2520,19 +2520,19 @@
         <v>1954919</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2829592062810851</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2354537</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2296820</v>
+        <v>2300486</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2404078</v>
+        <v>2407718</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.696457404278208</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6793850835654301</v>
+        <v>0.6804697131770379</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7111115811046</v>
+        <v>0.7121882500377877</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2426</v>
@@ -2570,19 +2570,19 @@
         <v>2599381</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2545371</v>
+        <v>2542152</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2652713</v>
+        <v>2651808</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.736764405634137</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7214558334329325</v>
+        <v>0.7205434857465759</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7518805171351525</v>
+        <v>0.7516242038939378</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4674</v>
@@ -2591,19 +2591,19 @@
         <v>4953918</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4876992</v>
+        <v>4878001</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5025838</v>
+        <v>5034271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7170407937189149</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7059063956459209</v>
+        <v>0.7060524736465854</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.727450721530198</v>
+        <v>0.7286712398509231</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>74292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58220</v>
+        <v>57651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94334</v>
+        <v>92194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2330029015394911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1825956352148592</v>
+        <v>0.1808115975009463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.295860531103866</v>
+        <v>0.2891491735995134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -2960,19 +2960,19 @@
         <v>58333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47037</v>
+        <v>47799</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70818</v>
+        <v>71232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1845636224179939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1488227547889904</v>
+        <v>0.1512342545760634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2240651905360507</v>
+        <v>0.2253741925890979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>162</v>
@@ -2981,19 +2981,19 @@
         <v>132625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113239</v>
+        <v>113788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155127</v>
+        <v>154768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2088894870571337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1783550536174704</v>
+        <v>0.1792204589222638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2443301940588258</v>
+        <v>0.2437648532391588</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>244553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224511</v>
+        <v>226651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>260625</v>
+        <v>261194</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7669970984605089</v>
+        <v>0.7669970984605091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7041394688961339</v>
+        <v>0.7108508264004868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8174043647851407</v>
+        <v>0.8191884024990539</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>444</v>
@@ -3031,19 +3031,19 @@
         <v>257728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245243</v>
+        <v>244829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269024</v>
+        <v>268262</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.815436377582006</v>
+        <v>0.8154363775820062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7759348094639497</v>
+        <v>0.7746258074109026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8511772452110096</v>
+        <v>0.8487657454239366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>707</v>
@@ -3052,19 +3052,19 @@
         <v>502281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>479779</v>
+        <v>480138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521667</v>
+        <v>521118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7911105129428663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7556698059411739</v>
+        <v>0.7562351467608412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8216449463825291</v>
+        <v>0.8207795410777362</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>387517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>361193</v>
+        <v>361453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411894</v>
+        <v>415591</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7302719019057263</v>
+        <v>0.7302719019057262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6806657380490991</v>
+        <v>0.6811556635270096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7762116048764353</v>
+        <v>0.7831780603259817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>472</v>
@@ -3177,19 +3177,19 @@
         <v>370494</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>350367</v>
+        <v>349322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>388675</v>
+        <v>389333</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6827643115955206</v>
+        <v>0.6827643115955205</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6456730625304061</v>
+        <v>0.6437479836860478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7162690811254162</v>
+        <v>0.7174824594438592</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>753</v>
@@ -3198,19 +3198,19 @@
         <v>758010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>728457</v>
+        <v>727820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>790556</v>
+        <v>791424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7062527279731912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6787171651891248</v>
+        <v>0.6781240363138816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7365763660492275</v>
+        <v>0.7373845226149526</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>143130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118753</v>
+        <v>115056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169454</v>
+        <v>169194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2697280980942738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2237883951235649</v>
+        <v>0.2168219396740187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3193342619509015</v>
+        <v>0.3188443364729905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>240</v>
@@ -3248,19 +3248,19 @@
         <v>172144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>153963</v>
+        <v>153305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192271</v>
+        <v>193316</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3172356884044794</v>
+        <v>0.3172356884044795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.283730918874584</v>
+        <v>0.2825175405561406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3543269374695938</v>
+        <v>0.3562520163139522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -3269,19 +3269,19 @@
         <v>315275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>282729</v>
+        <v>281861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>344828</v>
+        <v>345465</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2937472720268086</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2634236339507726</v>
+        <v>0.2626154773850478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3212828348108752</v>
+        <v>0.3218759636861185</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>148938</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132039</v>
+        <v>130966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166660</v>
+        <v>166791</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4738841709979468</v>
+        <v>0.4738841709979469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4201156355105527</v>
+        <v>0.416702818418548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5302717628484744</v>
+        <v>0.5306891555010227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -3394,19 +3394,19 @@
         <v>138144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123747</v>
+        <v>122383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155223</v>
+        <v>152782</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3894079798303361</v>
+        <v>0.389407979830336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3488253276700945</v>
+        <v>0.3449805662232277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4375523780008224</v>
+        <v>0.4306703113172698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -3415,19 +3415,19 @@
         <v>287081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264612</v>
+        <v>262461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>310321</v>
+        <v>310915</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4290915944554157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.395508015423326</v>
+        <v>0.39229275951732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4638278121862809</v>
+        <v>0.4647155419041015</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>165353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147631</v>
+        <v>147500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182252</v>
+        <v>183325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.526115829002053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4697282371515257</v>
+        <v>0.4693108444989773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5798843644894471</v>
+        <v>0.5832971815814519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>341</v>
@@ -3465,19 +3465,19 @@
         <v>216609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199530</v>
+        <v>201971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231006</v>
+        <v>232370</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6105920201696639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5624476219991775</v>
+        <v>0.5693296886827302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6511746723299052</v>
+        <v>0.6550194337767722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>542</v>
@@ -3486,19 +3486,19 @@
         <v>381963</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>358723</v>
+        <v>358129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>404432</v>
+        <v>406583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5709084055445843</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5361721878137191</v>
+        <v>0.5352844580958985</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6044919845766742</v>
+        <v>0.6077072404826801</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>155158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130008</v>
+        <v>128876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182132</v>
+        <v>181230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4246650995100644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3558303894061616</v>
+        <v>0.3527314474652226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4984913052138818</v>
+        <v>0.4960243450046265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -3611,19 +3611,19 @@
         <v>168107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146616</v>
+        <v>150185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>187861</v>
+        <v>189020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4101287015281139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3576962809377798</v>
+        <v>0.3664046721656378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4583220501109872</v>
+        <v>0.4611486169615727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>338</v>
@@ -3632,19 +3632,19 @@
         <v>323265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>288837</v>
+        <v>289678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>355189</v>
+        <v>353807</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4169794862171767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3725703505397374</v>
+        <v>0.3736551476349027</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4581578865926815</v>
+        <v>0.4563756551898477</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>210208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183234</v>
+        <v>184136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235358</v>
+        <v>236490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5753349004899356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5015086947861181</v>
+        <v>0.5039756549953737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6441696105938387</v>
+        <v>0.6472685525347774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -3682,19 +3682,19 @@
         <v>241782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222028</v>
+        <v>220869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>263273</v>
+        <v>259704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5898712984718861</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5416779498890127</v>
+        <v>0.5388513830384273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6423037190622202</v>
+        <v>0.6335953278343622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -3703,19 +3703,19 @@
         <v>451989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>420065</v>
+        <v>421447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>486417</v>
+        <v>485576</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5830205137828232</v>
+        <v>0.5830205137828233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5418421134073186</v>
+        <v>0.5436243448101521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6274296494602626</v>
+        <v>0.6263448523650972</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>83706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71826</v>
+        <v>70365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96707</v>
+        <v>97310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4070014742757365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3492385492216964</v>
+        <v>0.3421348292461108</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4702142739710742</v>
+        <v>0.4731504929232813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -3828,19 +3828,19 @@
         <v>80648</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70179</v>
+        <v>70515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92477</v>
+        <v>91627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3562336466251151</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3099896405584781</v>
+        <v>0.31147563061665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4084837520164369</v>
+        <v>0.4047300079922495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -3849,19 +3849,19 @@
         <v>164354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>147221</v>
+        <v>148158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181369</v>
+        <v>181027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3803998557265115</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3407449628387972</v>
+        <v>0.3429146746858827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4197821682370813</v>
+        <v>0.4189894676933424</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>121959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108958</v>
+        <v>108355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133839</v>
+        <v>135300</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5929985257242635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5297857260289258</v>
+        <v>0.5268495070767186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6507614507783035</v>
+        <v>0.6578651707538893</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>327</v>
@@ -3899,19 +3899,19 @@
         <v>145743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133914</v>
+        <v>134764</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156212</v>
+        <v>155876</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6437663533748849</v>
+        <v>0.643766353374885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5915162479835631</v>
+        <v>0.5952699920077507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6900103594415218</v>
+        <v>0.6885243693833498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>500</v>
@@ -3920,19 +3920,19 @@
         <v>267702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>250687</v>
+        <v>251029</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284835</v>
+        <v>283898</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6196001442734884</v>
+        <v>0.6196001442734885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5802178317629187</v>
+        <v>0.5810105323066576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6592550371612026</v>
+        <v>0.6570853253141172</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>133138</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118999</v>
+        <v>118291</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147198</v>
+        <v>147916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4918152925281001</v>
+        <v>0.4918152925281002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4395844998269119</v>
+        <v>0.4369689054148947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5437531984852112</v>
+        <v>0.5464059766324867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>199</v>
@@ -4045,19 +4045,19 @@
         <v>135785</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121814</v>
+        <v>122849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147293</v>
+        <v>148793</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5154356688555792</v>
+        <v>0.515435668855579</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4624044243678365</v>
+        <v>0.4663317456288323</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5591198169125903</v>
+        <v>0.5648135920382201</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>364</v>
@@ -4066,19 +4066,19 @@
         <v>268923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>247938</v>
+        <v>249569</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>287186</v>
+        <v>289476</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5034647455501776</v>
+        <v>0.5034647455501777</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4641767218351163</v>
+        <v>0.4672307069315519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.537654902017649</v>
+        <v>0.5419429269936433</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>137569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123509</v>
+        <v>122791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151708</v>
+        <v>152416</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5081847074718999</v>
+        <v>0.5081847074718998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4562468015147889</v>
+        <v>0.4535940233675133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5604155001730882</v>
+        <v>0.5630310945851053</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -4116,19 +4116,19 @@
         <v>127652</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116144</v>
+        <v>114644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141623</v>
+        <v>140588</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.484564331144421</v>
+        <v>0.4845643311444208</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4408801830874097</v>
+        <v>0.4351864079617801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5375955756321635</v>
+        <v>0.533668254371168</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>466</v>
@@ -4137,19 +4137,19 @@
         <v>265222</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246959</v>
+        <v>244669</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>286207</v>
+        <v>284576</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4965352544498223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4623450979823507</v>
+        <v>0.4580570730063566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5358232781648836</v>
+        <v>0.532769293068448</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>317626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>285898</v>
+        <v>284747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>350034</v>
+        <v>348528</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4418421464728217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3977055887627277</v>
+        <v>0.3961041371649846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4869238275525518</v>
+        <v>0.4848286880277119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>372</v>
@@ -4262,19 +4262,19 @@
         <v>303921</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278912</v>
+        <v>280861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>331465</v>
+        <v>331530</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3946922702360807</v>
+        <v>0.3946922702360806</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3622143252109681</v>
+        <v>0.3647450632813825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4304638824257273</v>
+        <v>0.4305476694365498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>629</v>
@@ -4283,19 +4283,19 @@
         <v>621547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>578777</v>
+        <v>579055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>664301</v>
+        <v>664113</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4174572791751442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3887314875066168</v>
+        <v>0.3889180913861662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.446172664370267</v>
+        <v>0.4460464904201705</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>401242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>368834</v>
+        <v>370340</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>432970</v>
+        <v>434121</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5581578535271783</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5130761724474482</v>
+        <v>0.515171311972288</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6022944112372722</v>
+        <v>0.6038958628350154</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>585</v>
@@ -4333,19 +4333,19 @@
         <v>466098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>438554</v>
+        <v>438489</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>491107</v>
+        <v>489158</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6053077297639193</v>
+        <v>0.6053077297639192</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5695361175742727</v>
+        <v>0.5694523305634501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6377856747890316</v>
+        <v>0.6352549367186174</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>926</v>
@@ -4354,19 +4354,19 @@
         <v>867340</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>824586</v>
+        <v>824774</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>910110</v>
+        <v>909832</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5825427208248558</v>
+        <v>0.5825427208248557</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5538273356297332</v>
+        <v>0.5539535095798298</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6112685124933833</v>
+        <v>0.6110819086138342</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>334011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>302225</v>
+        <v>304641</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>364083</v>
+        <v>363117</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4188721575459863</v>
+        <v>0.4188721575459862</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3790111958553959</v>
+        <v>0.3820406327066259</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4565842905413816</v>
+        <v>0.4553734420675212</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -4479,19 +4479,19 @@
         <v>275644</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250487</v>
+        <v>250156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301935</v>
+        <v>302647</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3322896337532983</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3019625795458841</v>
+        <v>0.3015634842322962</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3639836711880266</v>
+        <v>0.3648415559572222</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>573</v>
@@ -4500,19 +4500,19 @@
         <v>609655</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>570749</v>
+        <v>569905</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>653042</v>
+        <v>651691</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3747260774641483</v>
+        <v>0.3747260774641481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3508125361741751</v>
+        <v>0.350293725461469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4013940107725615</v>
+        <v>0.4005637162275468</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>463394</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>433322</v>
+        <v>434288</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>495180</v>
+        <v>492764</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5811278424540138</v>
+        <v>0.5811278424540137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5434157094586184</v>
+        <v>0.544626557932479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6209888041446042</v>
+        <v>0.6179593672933744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>758</v>
@@ -4550,19 +4550,19 @@
         <v>553886</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>527595</v>
+        <v>526883</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>579043</v>
+        <v>579374</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6677103662467015</v>
+        <v>0.6677103662467018</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6360163288119735</v>
+        <v>0.6351584440427782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6980374204541162</v>
+        <v>0.6984365157677042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1248</v>
@@ -4571,19 +4571,19 @@
         <v>1017280</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>973893</v>
+        <v>975244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1056186</v>
+        <v>1057030</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6252739225358518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5986059892274384</v>
+        <v>0.5994362837724532</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6491874638258248</v>
+        <v>0.649706274538531</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>1634384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2016</v>
@@ -4696,19 +4696,19 @@
         <v>1531076</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4123867769258656</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3436</v>
@@ -4717,19 +4717,19 @@
         <v>3165460</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4375499783483682</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>1887409</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1823377</v>
+        <v>1818977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1956472</v>
+        <v>1951416</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5359226620694019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5177410324880587</v>
+        <v>0.5164916522424718</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5555328860800719</v>
+        <v>0.5540972717162526</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3308</v>
@@ -4767,19 +4767,19 @@
         <v>2181642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2128924</v>
+        <v>2127061</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2236482</v>
+        <v>2238789</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5876132230741343</v>
+        <v>0.5876132230741344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5734139947929109</v>
+        <v>0.5729121637128151</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6023839089789834</v>
+        <v>0.6030053791196661</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5251</v>
@@ -4788,19 +4788,19 @@
         <v>4069051</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3976012</v>
+        <v>3985356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4148447</v>
+        <v>4152169</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5624500216516318</v>
+        <v>0.5624500216516319</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5495896390099447</v>
+        <v>0.5508811796603389</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5734246928888374</v>
+        <v>0.5739391840669082</v>
       </c>
     </row>
     <row r="30">
